--- a/PRODUTOS/Mercearia Doce/Mercearia Doce - Cereal matinal.xlsx
+++ b/PRODUTOS/Mercearia Doce/Mercearia Doce - Cereal matinal.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cereal Matinal Kellogg`s Sucrilhos Original 240g</t>
+          <t>Aveia Em Flocos Nestle 450g</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c0f87c36-d398-44f9-9487-d8b659041970.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f453c43b-2d49-4c5c-9427-2996e65de4b2.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7891000380994</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aveia Em Flocos Finos Nestlé 170g</t>
+          <t>Cereal Matinal Nesfit 220g Tradicional S/açucar</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fab46811-ee81-4a18-aa44-d152a97fda2d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/160449ae-b3ae-4fc0-885d-47e8f5f466b4.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891000288801</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Aveia Nestlé Em Flocos Regular 170g</t>
+          <t>Cereal Matinal Moça Flakes 230g Leite Condensado</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/762ceb1f-e9c2-4176-98ed-1cad818344d8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/060ea964-4b6a-402c-b3bc-6b1f95cdb930.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7891000357460</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Aveia Quaker Em Flocos Regular 165g</t>
+          <t>Cereal Matinal Nestlé Crunch 230g</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d6bb888b-364b-478e-8b02-b9efb17ce420.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6521436f-bec9-4db3-9370-d60a41e3f867.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7891000356791</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Aveia Quaker Em Flocos Finos 165g</t>
+          <t>Cereal Matinal Snow Flakes 620g</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6487592-e5eb-41cd-85aa-289057ff5eb6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4471c410-5d28-4cd5-bae5-18bf2592d324.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7891000369500</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Farelo De Aveia Kodilar 500g</t>
+          <t>Cereal Sucrilhos Kelloggs 110g Original</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/98091bb9-70a2-4806-a64e-53f3392ba4af.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dadc91d9-31a5-4797-a60f-ae422518d2bc.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896004007632</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cereal Matinal Nescau 210 Gr</t>
+          <t>Cereal Superbom Skarchitos 240g</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ca8ba062-bd2f-4b48-9d28-ca94dc441785.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9ecc4647-817d-4e9e-84a2-0d22f9b0eaed.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896004007656</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Aveia Em Flocos Fino Integral Jasmine 400g</t>
+          <t>Cereal Sucrilhos Kelloggs 60% Menos Açucar 170g</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/828c9b74-1170-4c64-8d89-ca277f8fd6bd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2ff59a8f-ba8b-408c-a05d-467bb6de24a4.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896004007632</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Farinha De Aveia Quaker 165g</t>
+          <t>Aveia Em Flocos Finos Nestle 450g</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fda033f6-f561-4bef-a1b8-a3810166360e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/16c67d04-a2ea-42e0-bfe9-dc68f07cabd3.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7891000380994</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cereal Matinal Nesfit 220g Tradicional S/açucar</t>
+          <t>Cereal Matinal Kit Kat 210g Chocolate</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/160449ae-b3ae-4fc0-885d-47e8f5f466b4.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7891000394939</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cereal Matinal Nescau Duo 210 Gr</t>
+          <t>Farinha Lactea Nestle 160g Tradicional</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f3fa137a-bb7b-4f5e-a211-1e2c014c8353.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f50acd67-9b86-4a78-8555-c6352b2d8a3d.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7891000078518</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cereal Corn Flakes Amavita 270gr Açucar</t>
+          <t>Cereal Kitkat Sachet 25g</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7db19c85-e34f-42a8-96f6-b86bf7065139.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a8ed7a71-ff4c-4d13-9dea-1858f1fbb6bf.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7891000423806</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cereal Rainbow Rings Amavita 200gr</t>
+          <t>Cereal Matinal Snow Flakes 240g Frutas</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0096cea1-49e8-4cc9-91a4-3e6df22d2f4d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b1f45ae3-97eb-4e46-8b7e-95fec52cecf7.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7891000427910</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Farelo De Aveia Jasmine 170g</t>
+          <t>Croc Choco Nissin 44g Chocolate Ao Leite</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce03b47f-b8ba-40fc-b15f-af47ebd5c7f5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c0d92ea-b57c-4706-a2cf-d0a75bc20504.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7891079014257</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cereal Sucrilhos Kelloggs 110g Original</t>
+          <t>Croc Choco Nissin 44g Chocolate Branco</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dadc91d9-31a5-4797-a60f-ae422518d2bc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ff72f51-30c9-433b-a777-4d12474f7395.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7891079014264</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Farinha Lactea Nestle 160g Tradicional</t>
+          <t>Kit Cereal Matinal Nescau 210g+snow Flakes 230g</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f50acd67-9b86-4a78-8555-c6352b2d8a3d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9430a96e-06a5-4444-a16a-0c98ae4cf3a4.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7891000361078</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cereal Corn Flakes Amavita 270gr Trad</t>
+          <t>Cereal Matinal Sucrilhos Kelloggs 200g Ovomaltine</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/41a3f85f-709d-4070-b71a-a78d3978de16.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c0f3e35e-e7bd-431c-9b12-9a90aed6e817.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896004011608</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Aveia Oat Bran Quaker 165g</t>
+          <t>Aveia Em Flocos Fino Integral Jasmine 400g</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa739345-0b0d-49bc-88be-4546d4a6e4e1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/828c9b74-1170-4c64-8d89-ca277f8fd6bd.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7896283000058</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cereal Matinal Snow Flakes 620g</t>
+          <t>Aveia Nestlé Em Flocos Regular 170g</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4471c410-5d28-4cd5-bae5-18bf2592d324.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/762ceb1f-e9c2-4176-98ed-1cad818344d8.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7891000102640</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cereal Superbom Skarchitos 240g</t>
+          <t>Aveia Em Flocos Finos Nestlé 170g</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9ecc4647-817d-4e9e-84a2-0d22f9b0eaed.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fab46811-ee81-4a18-aa44-d152a97fda2d.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7891000102626</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cereal Matinal Nestlé Crunch 230g</t>
+          <t>Farelo De Aveia Kodilar 500g</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6521436f-bec9-4db3-9370-d60a41e3f867.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/98091bb9-70a2-4806-a64e-53f3392ba4af.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7896256040227</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Aveia Em Flocos Finos Nestle 450g</t>
+          <t>Cereal Matinal Nescau 210 Gr</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/16c67d04-a2ea-42e0-bfe9-dc68f07cabd3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ca8ba062-bd2f-4b48-9d28-ca94dc441785.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7891000111161</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Kit Cereal Matinal Nescau 210g+snow Flakes 230g</t>
+          <t>Cereal Matinal Nescau Duo 210 Gr</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9430a96e-06a5-4444-a16a-0c98ae4cf3a4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f3fa137a-bb7b-4f5e-a211-1e2c014c8353.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7891000258613</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Aveia Em Flocos Nestle 450g</t>
+          <t>Cereal Matinal Nescau Sache 12og</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f453c43b-2d49-4c5c-9427-2996e65de4b2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c870f999-cf77-4d34-b3d8-c8afd5350e8a.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7891000070673</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cereal Matinal Sucrilhos Kellogg`s Leve 690g Pague 600g</t>
+          <t>Aveia Oat Bran Quaker 165g</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 21,98</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/610fba72-893b-405a-8bfc-90655435efd8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa739345-0b0d-49bc-88be-4546d4a6e4e1.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7892840815776</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cereal Corn Flakes Organico Native 300g</t>
+          <t>Cereal Rainbow Rings Amavita 200gr</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d783d310-d4a0-4799-8edf-afa0331227d0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0096cea1-49e8-4cc9-91a4-3e6df22d2f4d.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7898931140598</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cereal Corn Flakes Amavita 270g Lt Cond</t>
+          <t>Cereal Matinal Nescau 770g</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 33,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19241711-ddca-42d2-8916-83f98d32ac5b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e92587d8-ffda-409b-a5c5-4929730f8b1d.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7891000100448</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cereal Matinal Moça Flakes 230g Leite Condensado</t>
+          <t>Cereal Corn Flakes Amavita 270g Lt Cond</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/060ea964-4b6a-402c-b3bc-6b1f95cdb930.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19241711-ddca-42d2-8916-83f98d32ac5b.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7898931140383</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cereal Sucrilhos Kelloggs 60% Menos Açucar 170g</t>
+          <t>Cereal Corn Flakes Amavita 270gr Açucar</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2ff59a8f-ba8b-408c-a05d-467bb6de24a4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7db19c85-e34f-42a8-96f6-b86bf7065139.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7898931140390</t>
         </is>
       </c>
     </row>
@@ -1244,206 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cereal Kitkat Sachet 25g</t>
+          <t>Cereal Corn Flakes Amavita 270gr Trad</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a8ed7a71-ff4c-4d13-9dea-1858f1fbb6bf.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Cereal matinal</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Cereal Matinal Nescau 770g</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>R$ 33,99</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e92587d8-ffda-409b-a5c5-4929730f8b1d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Cereal matinal</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Cereal Matinal Nescau Sache 12og</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c870f999-cf77-4d34-b3d8-c8afd5350e8a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Cereal matinal</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Cereal Matinal Snow Flakes 240g Frutas</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b1f45ae3-97eb-4e46-8b7e-95fec52cecf7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Cereal matinal</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Croc Choco Nissin 44g Chocolate Branco</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ff72f51-30c9-433b-a777-4d12474f7395.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Cereal matinal</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Cereal Matinal Sucrilhos Kelloggs 200g Ovomaltine</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c0f3e35e-e7bd-431c-9b12-9a90aed6e817.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Cereal matinal</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Cereal Matinal Kit Kat 210g Chocolate</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Cereal matinal</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Croc Choco Nissin 44g Chocolate Ao Leite</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c0d92ea-b57c-4706-a2cf-d0a75bc20504.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/41a3f85f-709d-4070-b71a-a78d3978de16.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7898931140383</t>
         </is>
       </c>
     </row>
